--- a/Furniture/Documentation/FurnitureGrouping.xlsx
+++ b/Furniture/Documentation/FurnitureGrouping.xlsx
@@ -240,23 +240,8 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -268,12 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,9 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +268,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,368 +610,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>3</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>1</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20">
         <v>2</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
         <v>3</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24">
+      <c r="G16" s="20"/>
+      <c r="H16" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="9">
         <v>9</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="27"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
